--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.59510733333334</v>
+        <v>1.144900666666667</v>
       </c>
       <c r="H2">
-        <v>166.785322</v>
+        <v>3.434702</v>
       </c>
       <c r="I2">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="J2">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7376096666666667</v>
+        <v>1.480335666666667</v>
       </c>
       <c r="N2">
-        <v>2.212829</v>
+        <v>4.441007</v>
       </c>
       <c r="O2">
-        <v>0.1014284037978316</v>
+        <v>0.1826408776454046</v>
       </c>
       <c r="P2">
-        <v>0.1014284037978316</v>
+        <v>0.1826408776454046</v>
       </c>
       <c r="Q2">
-        <v>41.00748858843756</v>
+        <v>1.694837291657111</v>
       </c>
       <c r="R2">
-        <v>369.0673972959381</v>
+        <v>15.253535624914</v>
       </c>
       <c r="S2">
-        <v>0.04602030925000299</v>
+        <v>0.004608273581337734</v>
       </c>
       <c r="T2">
-        <v>0.04602030925000299</v>
+        <v>0.004608273581337734</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.59510733333334</v>
+        <v>1.144900666666667</v>
       </c>
       <c r="H3">
-        <v>166.785322</v>
+        <v>3.434702</v>
       </c>
       <c r="I3">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="J3">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.887478</v>
       </c>
       <c r="O3">
-        <v>0.08651544278546762</v>
+        <v>0.07762443032771463</v>
       </c>
       <c r="P3">
-        <v>0.08651544278546762</v>
+        <v>0.07762443032771463</v>
       </c>
       <c r="Q3">
-        <v>34.97818066643512</v>
+        <v>0.7203249401728887</v>
       </c>
       <c r="R3">
-        <v>314.803625997916</v>
+        <v>6.482924461555999</v>
       </c>
       <c r="S3">
-        <v>0.03925396913298639</v>
+        <v>0.001958568181215698</v>
       </c>
       <c r="T3">
-        <v>0.03925396913298639</v>
+        <v>0.001958568181215698</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.59510733333334</v>
+        <v>1.144900666666667</v>
       </c>
       <c r="H4">
-        <v>166.785322</v>
+        <v>3.434702</v>
       </c>
       <c r="I4">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="J4">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.827342666666667</v>
+        <v>5.953764333333333</v>
       </c>
       <c r="N4">
-        <v>17.482028</v>
+        <v>17.861293</v>
       </c>
       <c r="O4">
-        <v>0.8013155084233792</v>
+        <v>0.734563631492074</v>
       </c>
       <c r="P4">
-        <v>0.8013155084233792</v>
+        <v>0.734563631492074</v>
       </c>
       <c r="Q4">
-        <v>323.9717410214462</v>
+        <v>6.816468754409555</v>
       </c>
       <c r="R4">
-        <v>2915.745669193016</v>
+        <v>61.34821878968599</v>
       </c>
       <c r="S4">
-        <v>0.3635745621903957</v>
+        <v>0.01853402272512351</v>
       </c>
       <c r="T4">
-        <v>0.3635745621903957</v>
+        <v>0.01853402272512351</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.59510733333334</v>
+        <v>1.144900666666667</v>
       </c>
       <c r="H5">
-        <v>166.785322</v>
+        <v>3.434702</v>
       </c>
       <c r="I5">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="J5">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.07810833333333334</v>
+        <v>0.04191233333333333</v>
       </c>
       <c r="N5">
-        <v>0.234325</v>
+        <v>0.125737</v>
       </c>
       <c r="O5">
-        <v>0.01074064499332162</v>
+        <v>0.005171060534806686</v>
       </c>
       <c r="P5">
-        <v>0.01074064499332162</v>
+        <v>0.005171060534806686</v>
       </c>
       <c r="Q5">
-        <v>4.342441175294445</v>
+        <v>0.04798545837488888</v>
       </c>
       <c r="R5">
-        <v>39.08197057765</v>
+        <v>0.4318691253739999</v>
       </c>
       <c r="S5">
-        <v>0.004873268094826555</v>
+        <v>0.0001304727723457006</v>
       </c>
       <c r="T5">
-        <v>0.004873268094826555</v>
+        <v>0.0001304727723457006</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>4.963977</v>
       </c>
       <c r="I6">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="J6">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7376096666666667</v>
+        <v>1.480335666666667</v>
       </c>
       <c r="N6">
-        <v>2.212829</v>
+        <v>4.441007</v>
       </c>
       <c r="O6">
-        <v>0.1014284037978316</v>
+        <v>0.1826408776454046</v>
       </c>
       <c r="P6">
-        <v>0.1014284037978316</v>
+        <v>0.1826408776454046</v>
       </c>
       <c r="Q6">
-        <v>1.220492473437</v>
+        <v>2.449450733871</v>
       </c>
       <c r="R6">
-        <v>10.984432260933</v>
+        <v>22.045056604839</v>
       </c>
       <c r="S6">
-        <v>0.001369687415598251</v>
+        <v>0.006660072421848574</v>
       </c>
       <c r="T6">
-        <v>0.001369687415598251</v>
+        <v>0.006660072421848573</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.963977</v>
       </c>
       <c r="I7">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="J7">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.887478</v>
       </c>
       <c r="O7">
-        <v>0.08651544278546762</v>
+        <v>0.07762443032771463</v>
       </c>
       <c r="P7">
-        <v>0.08651544278546762</v>
+        <v>0.07762443032771463</v>
       </c>
       <c r="Q7">
         <v>1.041044153334</v>
@@ -883,10 +883,10 @@
         <v>9.369397380005999</v>
       </c>
       <c r="S7">
-        <v>0.001168303047284067</v>
+        <v>0.002830605800586646</v>
       </c>
       <c r="T7">
-        <v>0.001168303047284067</v>
+        <v>0.002830605800586646</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.963977</v>
       </c>
       <c r="I8">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="J8">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.827342666666667</v>
+        <v>5.953764333333333</v>
       </c>
       <c r="N8">
-        <v>17.482028</v>
+        <v>17.861293</v>
       </c>
       <c r="O8">
-        <v>0.8013155084233792</v>
+        <v>0.734563631492074</v>
       </c>
       <c r="P8">
-        <v>0.8013155084233792</v>
+        <v>0.734563631492074</v>
       </c>
       <c r="Q8">
-        <v>9.642264989484</v>
+        <v>9.851449738028998</v>
       </c>
       <c r="R8">
-        <v>86.780384905356</v>
+        <v>88.66304764226099</v>
       </c>
       <c r="S8">
-        <v>0.01082095080584006</v>
+        <v>0.02678615569123331</v>
       </c>
       <c r="T8">
-        <v>0.01082095080584006</v>
+        <v>0.02678615569123331</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.963977</v>
       </c>
       <c r="I9">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="J9">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.07810833333333334</v>
+        <v>0.04191233333333333</v>
       </c>
       <c r="N9">
-        <v>0.234325</v>
+        <v>0.125737</v>
       </c>
       <c r="O9">
-        <v>0.01074064499332162</v>
+        <v>0.005171060534806686</v>
       </c>
       <c r="P9">
-        <v>0.01074064499332162</v>
+        <v>0.005171060534806686</v>
       </c>
       <c r="Q9">
-        <v>0.129242656725</v>
+        <v>0.06935061956099998</v>
       </c>
       <c r="R9">
-        <v>1.163183910525</v>
+        <v>0.624155576049</v>
       </c>
       <c r="S9">
-        <v>0.0001450414847509953</v>
+        <v>0.0001885647840919805</v>
       </c>
       <c r="T9">
-        <v>0.0001450414847509953</v>
+        <v>0.0001885647840919805</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.222176333333334</v>
+        <v>3.191626333333333</v>
       </c>
       <c r="H10">
-        <v>9.666529000000001</v>
+        <v>9.574878999999999</v>
       </c>
       <c r="I10">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="J10">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7376096666666667</v>
+        <v>1.480335666666667</v>
       </c>
       <c r="N10">
-        <v>2.212829</v>
+        <v>4.441007</v>
       </c>
       <c r="O10">
-        <v>0.1014284037978316</v>
+        <v>0.1826408776454046</v>
       </c>
       <c r="P10">
-        <v>0.1014284037978316</v>
+        <v>0.1826408776454046</v>
       </c>
       <c r="Q10">
-        <v>2.376708411171223</v>
+        <v>4.724678295905889</v>
       </c>
       <c r="R10">
-        <v>21.390375700541</v>
+        <v>42.52210466315299</v>
       </c>
       <c r="S10">
-        <v>0.00266724102948413</v>
+        <v>0.0128464309102232</v>
       </c>
       <c r="T10">
-        <v>0.00266724102948413</v>
+        <v>0.0128464309102232</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.222176333333334</v>
+        <v>3.191626333333333</v>
       </c>
       <c r="H11">
-        <v>9.666529000000001</v>
+        <v>9.574878999999999</v>
       </c>
       <c r="I11">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="J11">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.887478</v>
       </c>
       <c r="O11">
-        <v>0.08651544278546762</v>
+        <v>0.07762443032771463</v>
       </c>
       <c r="P11">
-        <v>0.08651544278546762</v>
+        <v>0.07762443032771463</v>
       </c>
       <c r="Q11">
-        <v>2.027262313762444</v>
+        <v>2.008041496129111</v>
       </c>
       <c r="R11">
-        <v>18.245360823862</v>
+        <v>18.072373465162</v>
       </c>
       <c r="S11">
-        <v>0.002275078085043465</v>
+        <v>0.005459877843373422</v>
       </c>
       <c r="T11">
-        <v>0.002275078085043465</v>
+        <v>0.005459877843373422</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.222176333333334</v>
+        <v>3.191626333333333</v>
       </c>
       <c r="H12">
-        <v>9.666529000000001</v>
+        <v>9.574878999999999</v>
       </c>
       <c r="I12">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="J12">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.827342666666667</v>
+        <v>5.953764333333333</v>
       </c>
       <c r="N12">
-        <v>17.482028</v>
+        <v>17.861293</v>
       </c>
       <c r="O12">
-        <v>0.8013155084233792</v>
+        <v>0.734563631492074</v>
       </c>
       <c r="P12">
-        <v>0.8013155084233792</v>
+        <v>0.734563631492074</v>
       </c>
       <c r="Q12">
-        <v>18.77672562675689</v>
+        <v>19.00219102872744</v>
       </c>
       <c r="R12">
-        <v>168.990530640812</v>
+        <v>171.019719258547</v>
       </c>
       <c r="S12">
-        <v>0.02107202244736958</v>
+        <v>0.05166708057243623</v>
       </c>
       <c r="T12">
-        <v>0.02107202244736958</v>
+        <v>0.05166708057243623</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.222176333333334</v>
+        <v>3.191626333333333</v>
       </c>
       <c r="H13">
-        <v>9.666529000000001</v>
+        <v>9.574878999999999</v>
       </c>
       <c r="I13">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="J13">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.07810833333333334</v>
+        <v>0.04191233333333333</v>
       </c>
       <c r="N13">
-        <v>0.234325</v>
+        <v>0.125737</v>
       </c>
       <c r="O13">
-        <v>0.01074064499332162</v>
+        <v>0.005171060534806686</v>
       </c>
       <c r="P13">
-        <v>0.01074064499332162</v>
+        <v>0.005171060534806686</v>
       </c>
       <c r="Q13">
-        <v>0.2516788231027778</v>
+        <v>0.1337685067581111</v>
       </c>
       <c r="R13">
-        <v>2.265109407925</v>
+        <v>1.203916560823</v>
       </c>
       <c r="S13">
-        <v>0.0002824444429433403</v>
+        <v>0.0003637174369143609</v>
       </c>
       <c r="T13">
-        <v>0.0002824444429433403</v>
+        <v>0.0003637174369143609</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>62.05924166666666</v>
+        <v>39.384953</v>
       </c>
       <c r="H14">
-        <v>186.177725</v>
+        <v>118.154859</v>
       </c>
       <c r="I14">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="J14">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7376096666666667</v>
+        <v>1.480335666666667</v>
       </c>
       <c r="N14">
-        <v>2.212829</v>
+        <v>4.441007</v>
       </c>
       <c r="O14">
-        <v>0.1014284037978316</v>
+        <v>0.1826408776454046</v>
       </c>
       <c r="P14">
-        <v>0.1014284037978316</v>
+        <v>0.1826408776454046</v>
       </c>
       <c r="Q14">
-        <v>45.7754965593361</v>
+        <v>58.30295065589033</v>
       </c>
       <c r="R14">
-        <v>411.979469034025</v>
+        <v>524.7265559030129</v>
       </c>
       <c r="S14">
-        <v>0.0513711661027462</v>
+        <v>0.1585261007319951</v>
       </c>
       <c r="T14">
-        <v>0.0513711661027462</v>
+        <v>0.1585261007319951</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>62.05924166666666</v>
+        <v>39.384953</v>
       </c>
       <c r="H15">
-        <v>186.177725</v>
+        <v>118.154859</v>
       </c>
       <c r="I15">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="J15">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.887478</v>
       </c>
       <c r="O15">
-        <v>0.08651544278546762</v>
+        <v>0.07762443032771463</v>
       </c>
       <c r="P15">
-        <v>0.08651544278546762</v>
+        <v>0.07762443032771463</v>
       </c>
       <c r="Q15">
-        <v>39.04515111417221</v>
+        <v>24.77941077284466</v>
       </c>
       <c r="R15">
-        <v>351.40636002755</v>
+        <v>223.014696955602</v>
       </c>
       <c r="S15">
-        <v>0.0438180925201537</v>
+        <v>0.06737537850253886</v>
       </c>
       <c r="T15">
-        <v>0.0438180925201537</v>
+        <v>0.06737537850253886</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>62.05924166666666</v>
+        <v>39.384953</v>
       </c>
       <c r="H16">
-        <v>186.177725</v>
+        <v>118.154859</v>
       </c>
       <c r="I16">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="J16">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.827342666666667</v>
+        <v>5.953764333333333</v>
       </c>
       <c r="N16">
-        <v>17.482028</v>
+        <v>17.861293</v>
       </c>
       <c r="O16">
-        <v>0.8013155084233792</v>
+        <v>0.734563631492074</v>
       </c>
       <c r="P16">
-        <v>0.8013155084233792</v>
+        <v>0.734563631492074</v>
       </c>
       <c r="Q16">
-        <v>361.6404668251444</v>
+        <v>234.4887284414096</v>
       </c>
       <c r="R16">
-        <v>3254.7642014263</v>
+        <v>2110.398555972687</v>
       </c>
       <c r="S16">
-        <v>0.4058479729797738</v>
+        <v>0.637576372503281</v>
       </c>
       <c r="T16">
-        <v>0.4058479729797738</v>
+        <v>0.637576372503281</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>62.05924166666666</v>
+        <v>39.384953</v>
       </c>
       <c r="H17">
-        <v>186.177725</v>
+        <v>118.154859</v>
       </c>
       <c r="I17">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="J17">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.07810833333333334</v>
+        <v>0.04191233333333333</v>
       </c>
       <c r="N17">
-        <v>0.234325</v>
+        <v>0.125737</v>
       </c>
       <c r="O17">
-        <v>0.01074064499332162</v>
+        <v>0.005171060534806686</v>
       </c>
       <c r="P17">
-        <v>0.01074064499332162</v>
+        <v>0.005171060534806686</v>
       </c>
       <c r="Q17">
-        <v>4.847343934513888</v>
+        <v>1.650715278453666</v>
       </c>
       <c r="R17">
-        <v>43.626095410625</v>
+        <v>14.856437506083</v>
       </c>
       <c r="S17">
-        <v>0.005439890970800728</v>
+        <v>0.004488305541454644</v>
       </c>
       <c r="T17">
-        <v>0.005439890970800728</v>
+        <v>0.004488305541454644</v>
       </c>
     </row>
   </sheetData>
